--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3297.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3297.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.148190301420935</v>
+        <v>0.7642615437507629</v>
       </c>
       <c r="B1">
-        <v>2.333500551669164</v>
+        <v>0.5908836722373962</v>
       </c>
       <c r="C1">
-        <v>3.02661638550341</v>
+        <v>1.230963706970215</v>
       </c>
       <c r="D1">
-        <v>3.444692657864769</v>
+        <v>3.706138372421265</v>
       </c>
       <c r="E1">
-        <v>1.137772934743825</v>
+        <v>1.516143798828125</v>
       </c>
     </row>
   </sheetData>
